--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +69,39 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,14 +113,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,7 +429,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,26 +456,26 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Taskas</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Console service advert</t>
+  </si>
+  <si>
+    <t>Modulinė sistema, token-login atskirame modulyje</t>
   </si>
 </sst>
 </file>
@@ -118,11 +121,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -426,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
@@ -448,7 +460,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -456,7 +468,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -464,15 +476,15 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -480,7 +492,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -488,10 +500,18 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Taskas</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Asmuo</t>
   </si>
   <si>
-    <t>Dizaino templates</t>
-  </si>
-  <si>
     <t>Artas</t>
   </si>
   <si>
@@ -49,13 +46,37 @@
   </si>
   <si>
     <t>Modulinė sistema, token-login atskirame modulyje</t>
+  </si>
+  <si>
+    <t>Db versijavimo sistema</t>
+  </si>
+  <si>
+    <t>Release deployment sistema</t>
+  </si>
+  <si>
+    <t>Perkelti modulius</t>
+  </si>
+  <si>
+    <t>Modulių testai</t>
+  </si>
+  <si>
+    <t>Web'o testai</t>
+  </si>
+  <si>
+    <t>Registracijos forma, username panaikinti ir palikti tik mail</t>
+  </si>
+  <si>
+    <t>Password restore forma</t>
+  </si>
+  <si>
+    <t>Dizainas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +101,8 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,11 +112,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,29 +124,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
@@ -460,59 +462,115 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Taskas</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Dizainas</t>
+  </si>
+  <si>
+    <t>Pakurti serverį</t>
+  </si>
+  <si>
+    <t>Licencijų modulis</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +576,22 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Taskas</t>
   </si>
@@ -27,62 +27,23 @@
     <t>Artas</t>
   </si>
   <si>
-    <t>SVN public</t>
-  </si>
-  <si>
     <t>Ignas</t>
   </si>
   <si>
-    <t>Plugin, interface system</t>
-  </si>
-  <si>
-    <t>Saving DB error</t>
-  </si>
-  <si>
-    <t>Object cache in GenericDbHelper</t>
-  </si>
-  <si>
-    <t>Console service advert</t>
-  </si>
-  <si>
-    <t>Modulinė sistema, token-login atskirame modulyje</t>
-  </si>
-  <si>
-    <t>Db versijavimo sistema</t>
-  </si>
-  <si>
-    <t>Release deployment sistema</t>
-  </si>
-  <si>
-    <t>Perkelti modulius</t>
-  </si>
-  <si>
-    <t>Modulių testai</t>
-  </si>
-  <si>
-    <t>Web'o testai</t>
-  </si>
-  <si>
-    <t>Registracijos forma, username panaikinti ir palikti tik mail</t>
-  </si>
-  <si>
-    <t>Password restore forma</t>
-  </si>
-  <si>
-    <t>Dizainas</t>
-  </si>
-  <si>
-    <t>Pakurti serverį</t>
-  </si>
-  <si>
-    <t>Licencijų modulis</t>
+    <t>Autoscout24.de</t>
+  </si>
+  <si>
+    <t>Logas parserio</t>
+  </si>
+  <si>
+    <t>Edit disable settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,26 +60,13 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,23 +78,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,131 +407,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Taskas</t>
   </si>
@@ -33,10 +33,43 @@
     <t>Autoscout24.de</t>
   </si>
   <si>
-    <t>Logas parserio</t>
-  </si>
-  <si>
-    <t>Edit disable settings</t>
+    <t>Paskutinį kart tikrinta</t>
+  </si>
+  <si>
+    <t>Pirmas skelbimų parserio sąrašas nerodomas</t>
+  </si>
+  <si>
+    <t>Ribojimas userio neištrintų skelbimų</t>
+  </si>
+  <si>
+    <t>Auto refresh jei yra skelbimų (arba tūpas refresh)</t>
+  </si>
+  <si>
+    <t>Frontendo smiginėjimas</t>
+  </si>
+  <si>
+    <t>Parserio performance optimize</t>
+  </si>
+  <si>
+    <t>Logas į db parserio</t>
+  </si>
+  <si>
+    <t>Edit disable settings bo</t>
+  </si>
+  <si>
+    <t>Popup messages</t>
+  </si>
+  <si>
+    <t>Prioritetas</t>
+  </si>
+  <si>
+    <t>aukštas</t>
+  </si>
+  <si>
+    <t>vidutinis</t>
+  </si>
+  <si>
+    <t>žemas</t>
   </si>
 </sst>
 </file>
@@ -81,9 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,49 +424,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Taskas</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>žemas</t>
+  </si>
+  <si>
+    <t>Atidaryti mygtukas settings</t>
+  </si>
+  <si>
+    <t>Suvesti pluginus</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,40 +467,40 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -505,35 +511,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,16 +555,41 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C13">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +99,26 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,10 +130,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -129,8 +143,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +452,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,13 +507,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,13 +584,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Taskas</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Suvesti pluginus</t>
+  </si>
+  <si>
+    <t>Vertimas iki galo į LT kalbą</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +605,17 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Taskas</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Vertimas iki galo į LT kalbą</t>
+  </si>
+  <si>
+    <t>Perkelti serverį į kitą mašiną</t>
   </si>
 </sst>
 </file>
@@ -452,16 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,18 +525,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -544,7 +547,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -555,7 +558,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -577,7 +580,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -587,30 +590,30 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -619,8 +622,19 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C13">
+  <sortState ref="A2:C15">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +524,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Taskas</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Perkelti serverį į kitą mašiną</t>
+  </si>
+  <si>
+    <t>Rūšiavimas skelbimų pagal radimo datą</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,13 +538,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -568,13 +571,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -631,6 +634,17 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +116,16 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +135,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,11 +152,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -156,9 +170,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,24 +568,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -593,13 +612,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -637,13 +656,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Taskas</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Rūšiavimas skelbimų pagal radimo datą</t>
+  </si>
+  <si>
+    <t>DB auto backups</t>
+  </si>
+  <si>
+    <t>Taisyklės</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +669,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Taskas</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Taisyklės</t>
+  </si>
+  <si>
+    <t>Foto skelbimuose</t>
+  </si>
+  <si>
+    <t>vidutins</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +698,17 @@
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Taskas</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>vidutins</t>
+  </si>
+  <si>
+    <t>Prisijungusių userių sąrašas</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +712,17 @@
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Taskas</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Prisijungusių userių sąrašas</t>
+  </si>
+  <si>
+    <t>Naujų skelbimų garsas</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +726,17 @@
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,13 +531,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -652,13 +652,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Taskas</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Naujų skelbimų garsas</t>
+  </si>
+  <si>
+    <t>Plius.lt pavadinimai lėvi</t>
+  </si>
+  <si>
+    <t>Automatinis testavimas</t>
+  </si>
+  <si>
+    <t>Praplėsti console logą</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +745,39 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -48,9 +48,6 @@
     <t>Frontendo smiginėjimas</t>
   </si>
   <si>
-    <t>Parserio performance optimize</t>
-  </si>
-  <si>
     <t>Logas į db parserio</t>
   </si>
   <si>
@@ -111,7 +108,10 @@
     <t>Automatinis testavimas</t>
   </si>
   <si>
-    <t>Praplėsti console logą</t>
+    <t>Praplėsti console logą, su laikais.</t>
+  </si>
+  <si>
+    <t>Parserio performance optimize. Sesija</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,18 +525,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,40 +569,40 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,161 +624,161 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,13 +628,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Taskas</t>
   </si>
@@ -105,13 +105,19 @@
     <t>Plius.lt pavadinimai lėvi</t>
   </si>
   <si>
-    <t>Automatinis testavimas</t>
-  </si>
-  <si>
     <t>Praplėsti console logą, su laikais.</t>
   </si>
   <si>
     <t>Parserio performance optimize. Sesija</t>
+  </si>
+  <si>
+    <t>Photo parseriuose</t>
+  </si>
+  <si>
+    <t>Automatinis testavimas, nuorodų kai nėra skelbimų</t>
+  </si>
+  <si>
+    <t>Settings ant open visible foto, email</t>
   </si>
 </sst>
 </file>
@@ -504,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +635,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -716,13 +722,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -761,10 +767,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -772,12 +778,34 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,13 +711,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -512,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -788,13 +786,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -555,13 +555,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Taskas</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Settings ant open visible foto, email</t>
+  </si>
+  <si>
+    <t>Priminimai apie pabaigą licencijos</t>
   </si>
 </sst>
 </file>
@@ -510,9 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,13 +560,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -804,6 +809,17 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Taskas</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Priminimai apie pabaigą licencijos</t>
+  </si>
+  <si>
+    <t>Validacija nukala autoplius.lt nurodą</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +823,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
+++ b/tags/SkelbimaiProgramaWeb/Docs/TODO.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,13 +706,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -783,13 +783,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -827,13 +827,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
     </row>
